--- a/EC/Train Runs and Enforcements 2016-07-25.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-25.xlsx
@@ -4133,19 +4133,19 @@
   <dimension ref="A1:CM226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5:X5"/>
+      <selection activeCell="J79" sqref="A79:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="47" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="34" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="34" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="46" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="46" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="49" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="46" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="46" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="46" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="49" customWidth="1"/>
     <col min="11" max="12" width="13.28515625" style="34" customWidth="1"/>
@@ -4385,15 +4385,15 @@
       <c r="U5" s="52"/>
       <c r="V5" s="53">
         <f>AVERAGEIFS($N$13:$N$9997,$AG$13:$AG$9997,R1)</f>
-        <v>21.708212559941508</v>
+        <v>20.899758453723852</v>
       </c>
       <c r="W5" s="51">
         <f t="array" ref="W5">MIN(IF($AG$13:$AG$9997=R1,IF(ISNUMBER($N$13:$N$9997),IF($N$13:$N$9997&gt;0,$N$13:$N$9997))))</f>
-        <v>14.750000000931323</v>
+        <v>13.833333340007812</v>
       </c>
       <c r="X5" s="3">
         <f t="array" ref="X5">MAX(IF($AG$13:$AG$9997=R1,IF(ISNUMBER($N$13:$N$9997),IF($N$13:$N$9997&gt;0,$N$13:$N$9997))))</f>
-        <v>47.033333337167278</v>
+        <v>34.116666668560356</v>
       </c>
       <c r="Y5" s="114"/>
       <c r="Z5" s="116"/>
@@ -4556,15 +4556,15 @@
       <c r="U8" s="52"/>
       <c r="V8" s="53">
         <f>V5</f>
-        <v>21.708212559941508</v>
+        <v>20.899758453723852</v>
       </c>
       <c r="W8" s="51">
         <f>W5</f>
-        <v>14.750000000931323</v>
+        <v>13.833333340007812</v>
       </c>
       <c r="X8" s="3">
         <f>X5</f>
-        <v>47.033333337167278</v>
+        <v>34.116666668560356</v>
       </c>
       <c r="Y8" s="114"/>
       <c r="Z8" s="116"/>
@@ -20568,7 +20568,7 @@
         <v>42576.419224537036</v>
       </c>
       <c r="F152" s="101">
-        <v>42576.421840277777</v>
+        <v>42576.444895833331</v>
       </c>
       <c r="G152" s="99">
         <v>3</v>
@@ -20592,11 +20592,11 @@
       </c>
       <c r="M152" s="6">
         <f t="shared" ref="M152:M157" si="50">I152-F152</f>
-        <v>3.2662037039699499E-2</v>
+        <v>9.606481486116536E-3</v>
       </c>
       <c r="N152" s="7">
         <f t="shared" si="37"/>
-        <v>47.033333337167278</v>
+        <v>13.833333340007812</v>
       </c>
       <c r="O152" s="7"/>
       <c r="P152" s="7"/>
@@ -23282,7 +23282,7 @@
         <v>42576.596932870372</v>
       </c>
       <c r="F176" s="16">
-        <v>42576.597951388889</v>
+        <v>42576.613634259258</v>
       </c>
       <c r="G176" s="7">
         <v>1</v>
@@ -23306,11 +23306,11 @@
       </c>
       <c r="M176" s="6">
         <f t="shared" si="53"/>
-        <v>2.5439814817218576E-2</v>
+        <v>9.7569444478722289E-3</v>
       </c>
       <c r="N176" s="7">
         <f t="shared" si="37"/>
-        <v>36.633333336794749</v>
+        <v>14.05000000493601</v>
       </c>
       <c r="O176" s="7"/>
       <c r="P176" s="7"/>

--- a/EC/Train Runs and Enforcements 2016-07-25.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-25.xlsx
@@ -4130,22 +4130,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CM226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J79" sqref="A79:J79"/>
+      <selection activeCell="S13" sqref="A13:S214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="47" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="34" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="46" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="49" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="49" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="46" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="46" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="49" customWidth="1"/>
     <col min="11" max="12" width="13.28515625" style="34" customWidth="1"/>
@@ -4942,7 +4943,7 @@
       </c>
       <c r="BB13" s="130"/>
     </row>
-    <row r="14" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>381</v>
       </c>
@@ -5057,7 +5058,7 @@
       <c r="AI14" s="130"/>
       <c r="BB14" s="130"/>
     </row>
-    <row r="15" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>384</v>
       </c>
@@ -5170,7 +5171,7 @@
       </c>
       <c r="BB15" s="130"/>
     </row>
-    <row r="16" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>386</v>
       </c>
@@ -5283,7 +5284,7 @@
       </c>
       <c r="BB16" s="130"/>
     </row>
-    <row r="17" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>382</v>
       </c>
@@ -5511,7 +5512,7 @@
       </c>
       <c r="BB18" s="130"/>
     </row>
-    <row r="19" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>385</v>
       </c>
@@ -5624,7 +5625,7 @@
       </c>
       <c r="BB19" s="130"/>
     </row>
-    <row r="20" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>370</v>
       </c>
@@ -5737,7 +5738,7 @@
       </c>
       <c r="BB20" s="130"/>
     </row>
-    <row r="21" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>373</v>
       </c>
@@ -5850,7 +5851,7 @@
       </c>
       <c r="BB21" s="130"/>
     </row>
-    <row r="22" spans="1:54" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>387</v>
       </c>
@@ -5963,7 +5964,7 @@
       </c>
       <c r="BB22" s="131"/>
     </row>
-    <row r="23" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>380</v>
       </c>
@@ -6076,7 +6077,7 @@
       </c>
       <c r="BB23" s="130"/>
     </row>
-    <row r="24" spans="1:54" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>360</v>
       </c>
@@ -6189,7 +6190,7 @@
       </c>
       <c r="BB24" s="130"/>
     </row>
-    <row r="25" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>366</v>
       </c>
@@ -6302,7 +6303,7 @@
       </c>
       <c r="BB25" s="130"/>
     </row>
-    <row r="26" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>388</v>
       </c>
@@ -6415,7 +6416,7 @@
       </c>
       <c r="BB26" s="130"/>
     </row>
-    <row r="27" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>374</v>
       </c>
@@ -6528,7 +6529,7 @@
       </c>
       <c r="BB27" s="130"/>
     </row>
-    <row r="28" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>364</v>
       </c>
@@ -6641,7 +6642,7 @@
       </c>
       <c r="BB28" s="130"/>
     </row>
-    <row r="29" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>390</v>
       </c>
@@ -6754,7 +6755,7 @@
       </c>
       <c r="BB29" s="130"/>
     </row>
-    <row r="30" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>379</v>
       </c>
@@ -6982,7 +6983,7 @@
       </c>
       <c r="BB31" s="130"/>
     </row>
-    <row r="32" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>389</v>
       </c>
@@ -7095,7 +7096,7 @@
       </c>
       <c r="BB32" s="130"/>
     </row>
-    <row r="33" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>376</v>
       </c>
@@ -7208,7 +7209,7 @@
       </c>
       <c r="BB33" s="130"/>
     </row>
-    <row r="34" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>378</v>
       </c>
@@ -7321,7 +7322,7 @@
       </c>
       <c r="BB34" s="130"/>
     </row>
-    <row r="35" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>377</v>
       </c>
@@ -7434,7 +7435,7 @@
       </c>
       <c r="BB35" s="130"/>
     </row>
-    <row r="36" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>369</v>
       </c>
@@ -7547,7 +7548,7 @@
       </c>
       <c r="BB36" s="130"/>
     </row>
-    <row r="37" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>409</v>
       </c>
@@ -7660,7 +7661,7 @@
       </c>
       <c r="BB37" s="130"/>
     </row>
-    <row r="38" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>368</v>
       </c>
@@ -7773,7 +7774,7 @@
       </c>
       <c r="BB38" s="130"/>
     </row>
-    <row r="39" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>410</v>
       </c>
@@ -7886,7 +7887,7 @@
       </c>
       <c r="BB39" s="130"/>
     </row>
-    <row r="40" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>367</v>
       </c>
@@ -7999,7 +8000,7 @@
       </c>
       <c r="BB40" s="130"/>
     </row>
-    <row r="41" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>411</v>
       </c>
@@ -8112,7 +8113,7 @@
       </c>
       <c r="BB41" s="130"/>
     </row>
-    <row r="42" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
         <v>413</v>
       </c>
@@ -8225,7 +8226,7 @@
       </c>
       <c r="BB42" s="130"/>
     </row>
-    <row r="43" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>415</v>
       </c>
@@ -8338,7 +8339,7 @@
       </c>
       <c r="BB43" s="130"/>
     </row>
-    <row r="44" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>417</v>
       </c>
@@ -8451,7 +8452,7 @@
       </c>
       <c r="BB44" s="130"/>
     </row>
-    <row r="45" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
         <v>418</v>
       </c>
@@ -8564,7 +8565,7 @@
       </c>
       <c r="BB45" s="130"/>
     </row>
-    <row r="46" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>420</v>
       </c>
@@ -8677,7 +8678,7 @@
       </c>
       <c r="BB46" s="130"/>
     </row>
-    <row r="47" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>421</v>
       </c>
@@ -8790,7 +8791,7 @@
       </c>
       <c r="BB47" s="130"/>
     </row>
-    <row r="48" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>422</v>
       </c>
@@ -8903,7 +8904,7 @@
       </c>
       <c r="BB48" s="130"/>
     </row>
-    <row r="49" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>424</v>
       </c>
@@ -9016,7 +9017,7 @@
       </c>
       <c r="BB49" s="130"/>
     </row>
-    <row r="50" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>426</v>
       </c>
@@ -9129,7 +9130,7 @@
       </c>
       <c r="BB50" s="130"/>
     </row>
-    <row r="51" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>427</v>
       </c>
@@ -9357,7 +9358,7 @@
       </c>
       <c r="BB52" s="85"/>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
         <v>430</v>
       </c>
@@ -9470,7 +9471,7 @@
       </c>
       <c r="BB53" s="85"/>
     </row>
-    <row r="54" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
         <v>433</v>
       </c>
@@ -9583,7 +9584,7 @@
       </c>
       <c r="BB54" s="130"/>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
         <v>435</v>
       </c>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="BB55" s="85"/>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
         <v>436</v>
       </c>
@@ -9809,7 +9810,7 @@
       </c>
       <c r="BB56" s="85"/>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
         <v>437</v>
       </c>
@@ -9922,7 +9923,7 @@
       </c>
       <c r="BB57" s="85"/>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
         <v>439</v>
       </c>
@@ -10035,7 +10036,7 @@
       </c>
       <c r="BB58" s="85"/>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>440</v>
       </c>
@@ -10148,7 +10149,7 @@
       </c>
       <c r="BB59" s="85"/>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
         <v>442</v>
       </c>
@@ -10261,7 +10262,7 @@
       </c>
       <c r="BB60" s="85"/>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
         <v>443</v>
       </c>
@@ -10374,7 +10375,7 @@
       </c>
       <c r="BB61" s="85"/>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
         <v>444</v>
       </c>
@@ -10487,7 +10488,7 @@
       </c>
       <c r="BB62" s="85"/>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45" t="s">
         <v>445</v>
       </c>
@@ -10600,7 +10601,7 @@
       </c>
       <c r="BB63" s="85"/>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45" t="s">
         <v>447</v>
       </c>
@@ -10713,7 +10714,7 @@
       </c>
       <c r="BB64" s="85"/>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45" t="s">
         <v>448</v>
       </c>
@@ -10826,7 +10827,7 @@
       </c>
       <c r="BB65" s="85"/>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45" t="s">
         <v>450</v>
       </c>
@@ -10939,7 +10940,7 @@
       </c>
       <c r="BB66" s="85"/>
     </row>
-    <row r="67" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45" t="s">
         <v>451</v>
       </c>
@@ -11052,7 +11053,7 @@
       </c>
       <c r="BB67" s="85"/>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45" t="s">
         <v>452</v>
       </c>
@@ -11165,7 +11166,7 @@
       </c>
       <c r="BB68" s="85"/>
     </row>
-    <row r="69" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45" t="s">
         <v>453</v>
       </c>
@@ -11278,7 +11279,7 @@
       </c>
       <c r="BB69" s="85"/>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
         <v>455</v>
       </c>
@@ -11391,7 +11392,7 @@
       </c>
       <c r="BB70" s="85"/>
     </row>
-    <row r="71" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
         <v>457</v>
       </c>
@@ -11504,7 +11505,7 @@
       </c>
       <c r="BB71" s="85"/>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45" t="s">
         <v>459</v>
       </c>
@@ -11617,7 +11618,7 @@
       </c>
       <c r="BB72" s="85"/>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
         <v>460</v>
       </c>
@@ -11845,7 +11846,7 @@
       </c>
       <c r="BB74" s="85"/>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45" t="s">
         <v>461</v>
       </c>
@@ -11955,7 +11956,7 @@
       </c>
       <c r="BB75" s="85"/>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45" t="s">
         <v>466</v>
       </c>
@@ -12068,7 +12069,7 @@
       </c>
       <c r="BB76" s="85"/>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
         <v>468</v>
       </c>
@@ -12181,7 +12182,7 @@
       </c>
       <c r="BB77" s="85"/>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
         <v>469</v>
       </c>
@@ -12295,7 +12296,7 @@
       </c>
       <c r="BB78" s="85"/>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
         <v>471</v>
       </c>
@@ -12408,7 +12409,7 @@
       </c>
       <c r="BB79" s="85"/>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45" t="s">
         <v>473</v>
       </c>
@@ -12521,7 +12522,7 @@
       </c>
       <c r="BB80" s="85"/>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45" t="s">
         <v>475</v>
       </c>
@@ -12634,7 +12635,7 @@
       </c>
       <c r="BB81" s="85"/>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45" t="s">
         <v>477</v>
       </c>
@@ -12747,7 +12748,7 @@
       </c>
       <c r="BB82" s="85"/>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
         <v>479</v>
       </c>
@@ -12860,7 +12861,7 @@
       </c>
       <c r="BB83" s="85"/>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
         <v>482</v>
       </c>
@@ -12973,7 +12974,7 @@
       </c>
       <c r="BB84" s="85"/>
     </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
         <v>485</v>
       </c>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="BB85" s="85"/>
     </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
         <v>486</v>
       </c>
@@ -13199,7 +13200,7 @@
       </c>
       <c r="BB86" s="85"/>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
         <v>488</v>
       </c>
@@ -13427,7 +13428,7 @@
       </c>
       <c r="BB88" s="85"/>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
         <v>492</v>
       </c>
@@ -13540,7 +13541,7 @@
       </c>
       <c r="BB89" s="85"/>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
         <v>494</v>
       </c>
@@ -13653,7 +13654,7 @@
       </c>
       <c r="BB90" s="85"/>
     </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
         <v>495</v>
       </c>
@@ -13766,7 +13767,7 @@
       </c>
       <c r="BB91" s="85"/>
     </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
         <v>497</v>
       </c>
@@ -13879,7 +13880,7 @@
       </c>
       <c r="BB92" s="85"/>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45" t="s">
         <v>498</v>
       </c>
@@ -13992,7 +13993,7 @@
       </c>
       <c r="BB93" s="85"/>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
         <v>499</v>
       </c>
@@ -14105,7 +14106,7 @@
       </c>
       <c r="BB94" s="85"/>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
         <v>500</v>
       </c>
@@ -14218,7 +14219,7 @@
       </c>
       <c r="BB95" s="85"/>
     </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
         <v>502</v>
       </c>
@@ -14331,7 +14332,7 @@
       </c>
       <c r="BB96" s="85"/>
     </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45" t="s">
         <v>504</v>
       </c>
@@ -14444,7 +14445,7 @@
       </c>
       <c r="BB97" s="85"/>
     </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
         <v>506</v>
       </c>
@@ -14557,7 +14558,7 @@
       </c>
       <c r="BB98" s="85"/>
     </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45" t="s">
         <v>507</v>
       </c>
@@ -14670,7 +14671,7 @@
       </c>
       <c r="BB99" s="85"/>
     </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45" t="s">
         <v>508</v>
       </c>
@@ -14783,7 +14784,7 @@
       </c>
       <c r="BB100" s="85"/>
     </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>509</v>
       </c>
@@ -14896,7 +14897,7 @@
       </c>
       <c r="BB101" s="85"/>
     </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="45" t="s">
         <v>510</v>
       </c>
@@ -15009,7 +15010,7 @@
       </c>
       <c r="BB102" s="85"/>
     </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
         <v>511</v>
       </c>
@@ -15122,7 +15123,7 @@
       </c>
       <c r="BB103" s="85"/>
     </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="45" t="s">
         <v>512</v>
       </c>
@@ -15237,7 +15238,7 @@
       </c>
       <c r="BB104" s="85"/>
     </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="45" t="s">
         <v>514</v>
       </c>
@@ -15350,7 +15351,7 @@
       </c>
       <c r="BB105" s="85"/>
     </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45" t="s">
         <v>515</v>
       </c>
@@ -15463,7 +15464,7 @@
       </c>
       <c r="BB106" s="85"/>
     </row>
-    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="45" t="s">
         <v>516</v>
       </c>
@@ -15576,7 +15577,7 @@
       </c>
       <c r="BB107" s="85"/>
     </row>
-    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
         <v>518</v>
       </c>
@@ -15689,7 +15690,7 @@
       </c>
       <c r="BB108" s="85"/>
     </row>
-    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="45" t="s">
         <v>520</v>
       </c>
@@ -15802,7 +15803,7 @@
       </c>
       <c r="BB109" s="85"/>
     </row>
-    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="45" t="s">
         <v>521</v>
       </c>
@@ -15915,7 +15916,7 @@
       </c>
       <c r="BB110" s="85"/>
     </row>
-    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="45" t="s">
         <v>523</v>
       </c>
@@ -16028,7 +16029,7 @@
       </c>
       <c r="BB111" s="85"/>
     </row>
-    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45" t="s">
         <v>525</v>
       </c>
@@ -16141,7 +16142,7 @@
       </c>
       <c r="BB112" s="85"/>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="45" t="s">
         <v>526</v>
       </c>
@@ -16254,7 +16255,7 @@
       </c>
       <c r="BB113" s="85"/>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
         <v>528</v>
       </c>
@@ -16367,7 +16368,7 @@
       </c>
       <c r="BB114" s="85"/>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="45" t="s">
         <v>529</v>
       </c>
@@ -16480,7 +16481,7 @@
       </c>
       <c r="BB115" s="85"/>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="45" t="s">
         <v>530</v>
       </c>
@@ -16593,7 +16594,7 @@
       </c>
       <c r="BB116" s="85"/>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45" t="s">
         <v>532</v>
       </c>
@@ -16706,7 +16707,7 @@
       </c>
       <c r="BB117" s="85"/>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45" t="s">
         <v>533</v>
       </c>
@@ -16819,7 +16820,7 @@
       </c>
       <c r="BB118" s="85"/>
     </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
         <v>534</v>
       </c>
@@ -16932,7 +16933,7 @@
       </c>
       <c r="BB119" s="85"/>
     </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45" t="s">
         <v>535</v>
       </c>
@@ -17045,7 +17046,7 @@
       </c>
       <c r="BB120" s="85"/>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45" t="s">
         <v>537</v>
       </c>
@@ -17158,7 +17159,7 @@
       </c>
       <c r="BB121" s="85"/>
     </row>
-    <row r="122" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
         <v>538</v>
       </c>
@@ -17386,7 +17387,7 @@
       </c>
       <c r="BB123" s="85"/>
     </row>
-    <row r="124" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45" t="s">
         <v>540</v>
       </c>
@@ -17499,7 +17500,7 @@
       </c>
       <c r="BB124" s="85"/>
     </row>
-    <row r="125" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="45" t="s">
         <v>541</v>
       </c>
@@ -17612,7 +17613,7 @@
       </c>
       <c r="BB125" s="85"/>
     </row>
-    <row r="126" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
         <v>542</v>
       </c>
@@ -17725,7 +17726,7 @@
       </c>
       <c r="BB126" s="85"/>
     </row>
-    <row r="127" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
         <v>543</v>
       </c>
@@ -17838,7 +17839,7 @@
       </c>
       <c r="BB127" s="85"/>
     </row>
-    <row r="128" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
         <v>545</v>
       </c>
@@ -17951,7 +17952,7 @@
       </c>
       <c r="BB128" s="85"/>
     </row>
-    <row r="129" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="45" t="s">
         <v>547</v>
       </c>
@@ -18064,7 +18065,7 @@
       </c>
       <c r="BB129" s="85"/>
     </row>
-    <row r="130" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45" t="s">
         <v>550</v>
       </c>
@@ -18177,7 +18178,7 @@
       </c>
       <c r="BB130" s="85"/>
     </row>
-    <row r="131" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="45" t="s">
         <v>552</v>
       </c>
@@ -18290,7 +18291,7 @@
       </c>
       <c r="BB131" s="85"/>
     </row>
-    <row r="132" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="45" t="s">
         <v>553</v>
       </c>
@@ -18403,7 +18404,7 @@
       </c>
       <c r="BB132" s="85"/>
     </row>
-    <row r="133" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
         <v>554</v>
       </c>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="BB133" s="85"/>
     </row>
-    <row r="134" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
         <v>555</v>
       </c>
@@ -18629,7 +18630,7 @@
       </c>
       <c r="BB134" s="85"/>
     </row>
-    <row r="135" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
         <v>557</v>
       </c>
@@ -18742,7 +18743,7 @@
       </c>
       <c r="BB135" s="85"/>
     </row>
-    <row r="136" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
         <v>559</v>
       </c>
@@ -18855,7 +18856,7 @@
       </c>
       <c r="BB136" s="85"/>
     </row>
-    <row r="137" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
         <v>562</v>
       </c>
@@ -18968,7 +18969,7 @@
       </c>
       <c r="BB137" s="85"/>
     </row>
-    <row r="138" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
         <v>564</v>
       </c>
@@ -19081,7 +19082,7 @@
       </c>
       <c r="BB138" s="85"/>
     </row>
-    <row r="139" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
         <v>565</v>
       </c>
@@ -19194,7 +19195,7 @@
       </c>
       <c r="BB139" s="85"/>
     </row>
-    <row r="140" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
         <v>566</v>
       </c>
@@ -19307,7 +19308,7 @@
       </c>
       <c r="BB140" s="85"/>
     </row>
-    <row r="141" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
         <v>567</v>
       </c>
@@ -19420,7 +19421,7 @@
       </c>
       <c r="BB141" s="85"/>
     </row>
-    <row r="142" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
         <v>568</v>
       </c>
@@ -19534,7 +19535,7 @@
       </c>
       <c r="BB142" s="85"/>
     </row>
-    <row r="143" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:54" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
         <v>569</v>
       </c>
@@ -19647,7 +19648,7 @@
       </c>
       <c r="BB143" s="85"/>
     </row>
-    <row r="144" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
         <v>570</v>
       </c>
@@ -19760,7 +19761,7 @@
       </c>
       <c r="BB144" s="85"/>
     </row>
-    <row r="145" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
         <v>572</v>
       </c>
@@ -19873,7 +19874,7 @@
       </c>
       <c r="BB145" s="85"/>
     </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
         <v>574</v>
       </c>
@@ -19986,7 +19987,7 @@
       </c>
       <c r="BB146" s="85"/>
     </row>
-    <row r="147" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
         <v>575</v>
       </c>
@@ -20099,7 +20100,7 @@
       </c>
       <c r="BB147" s="85"/>
     </row>
-    <row r="148" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
         <v>576</v>
       </c>
@@ -20212,7 +20213,7 @@
       </c>
       <c r="BB148" s="85"/>
     </row>
-    <row r="149" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
         <v>577</v>
       </c>
@@ -20325,7 +20326,7 @@
       </c>
       <c r="BB149" s="85"/>
     </row>
-    <row r="150" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
         <v>578</v>
       </c>
@@ -20438,7 +20439,7 @@
       </c>
       <c r="BB150" s="85"/>
     </row>
-    <row r="151" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
         <v>579</v>
       </c>
@@ -20551,7 +20552,7 @@
       </c>
       <c r="BB151" s="85"/>
     </row>
-    <row r="152" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
         <v>580</v>
       </c>
@@ -20664,7 +20665,7 @@
       </c>
       <c r="BB152" s="85"/>
     </row>
-    <row r="153" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
         <v>583</v>
       </c>
@@ -20777,7 +20778,7 @@
       </c>
       <c r="BB153" s="85"/>
     </row>
-    <row r="154" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
         <v>585</v>
       </c>
@@ -20890,7 +20891,7 @@
       </c>
       <c r="BB154" s="85"/>
     </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
         <v>588</v>
       </c>
@@ -21003,7 +21004,7 @@
       </c>
       <c r="BB155" s="85"/>
     </row>
-    <row r="156" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
         <v>591</v>
       </c>
@@ -21116,7 +21117,7 @@
       </c>
       <c r="BB156" s="85"/>
     </row>
-    <row r="157" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
         <v>594</v>
       </c>
@@ -21229,7 +21230,7 @@
       </c>
       <c r="BB157" s="85"/>
     </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
         <v>597</v>
       </c>
@@ -21342,7 +21343,7 @@
       </c>
       <c r="BB158" s="85"/>
     </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
         <v>599</v>
       </c>
@@ -21455,7 +21456,7 @@
       </c>
       <c r="BB159" s="85"/>
     </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
         <v>602</v>
       </c>
@@ -21568,7 +21569,7 @@
       </c>
       <c r="BB160" s="85"/>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
         <v>605</v>
       </c>
@@ -21796,7 +21797,7 @@
       </c>
       <c r="BB162" s="85"/>
     </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
         <v>610</v>
       </c>
@@ -21909,7 +21910,7 @@
       </c>
       <c r="BB163" s="85"/>
     </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
         <v>611</v>
       </c>
@@ -22022,7 +22023,7 @@
       </c>
       <c r="BB164" s="85"/>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
         <v>612</v>
       </c>
@@ -22135,7 +22136,7 @@
       </c>
       <c r="BB165" s="85"/>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
         <v>615</v>
       </c>
@@ -22248,7 +22249,7 @@
       </c>
       <c r="BB166" s="85"/>
     </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="45" t="s">
         <v>617</v>
       </c>
@@ -22361,7 +22362,7 @@
       </c>
       <c r="BB167" s="85"/>
     </row>
-    <row r="168" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="45" t="s">
         <v>619</v>
       </c>
@@ -22474,7 +22475,7 @@
       </c>
       <c r="BB168" s="85"/>
     </row>
-    <row r="169" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="45" t="s">
         <v>621</v>
       </c>
@@ -22587,7 +22588,7 @@
       </c>
       <c r="BB169" s="85"/>
     </row>
-    <row r="170" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="45" t="s">
         <v>623</v>
       </c>
@@ -22700,7 +22701,7 @@
       </c>
       <c r="BB170" s="85"/>
     </row>
-    <row r="171" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="45" t="s">
         <v>624</v>
       </c>
@@ -22813,7 +22814,7 @@
       </c>
       <c r="BB171" s="85"/>
     </row>
-    <row r="172" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="45" t="s">
         <v>626</v>
       </c>
@@ -22926,7 +22927,7 @@
       </c>
       <c r="BB172" s="85"/>
     </row>
-    <row r="173" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="45" t="s">
         <v>627</v>
       </c>
@@ -23039,7 +23040,7 @@
       </c>
       <c r="BB173" s="85"/>
     </row>
-    <row r="174" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="45" t="s">
         <v>630</v>
       </c>
@@ -23152,7 +23153,7 @@
       </c>
       <c r="BB174" s="85"/>
     </row>
-    <row r="175" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="45" t="s">
         <v>633</v>
       </c>
@@ -23265,7 +23266,7 @@
       </c>
       <c r="BB175" s="85"/>
     </row>
-    <row r="176" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="45" t="s">
         <v>636</v>
       </c>
@@ -23378,7 +23379,7 @@
       </c>
       <c r="BB176" s="85"/>
     </row>
-    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="45" t="s">
         <v>639</v>
       </c>
@@ -23491,7 +23492,7 @@
       </c>
       <c r="BB177" s="85"/>
     </row>
-    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="45" t="s">
         <v>642</v>
       </c>
@@ -23604,7 +23605,7 @@
       </c>
       <c r="BB178" s="85"/>
     </row>
-    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="45" t="s">
         <v>643</v>
       </c>
@@ -23717,7 +23718,7 @@
       </c>
       <c r="BB179" s="85"/>
     </row>
-    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="45" t="s">
         <v>645</v>
       </c>
@@ -23830,7 +23831,7 @@
       </c>
       <c r="BB180" s="85"/>
     </row>
-    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="45" t="s">
         <v>646</v>
       </c>
@@ -23943,7 +23944,7 @@
       </c>
       <c r="BB181" s="85"/>
     </row>
-    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="45" t="s">
         <v>648</v>
       </c>
@@ -24056,7 +24057,7 @@
       </c>
       <c r="BB182" s="85"/>
     </row>
-    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="45" t="s">
         <v>650</v>
       </c>
@@ -24169,7 +24170,7 @@
       </c>
       <c r="BB183" s="85"/>
     </row>
-    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="45" t="s">
         <v>653</v>
       </c>
@@ -24282,7 +24283,7 @@
       </c>
       <c r="BB184" s="85"/>
     </row>
-    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="45" t="s">
         <v>656</v>
       </c>
@@ -24395,7 +24396,7 @@
       </c>
       <c r="BB185" s="85"/>
     </row>
-    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="45" t="s">
         <v>658</v>
       </c>
@@ -24508,7 +24509,7 @@
       </c>
       <c r="BB186" s="85"/>
     </row>
-    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="45" t="s">
         <v>661</v>
       </c>
@@ -24621,7 +24622,7 @@
       </c>
       <c r="BB187" s="85"/>
     </row>
-    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="45" t="s">
         <v>664</v>
       </c>
@@ -24734,7 +24735,7 @@
       </c>
       <c r="BB188" s="85"/>
     </row>
-    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="45" t="s">
         <v>666</v>
       </c>
@@ -24847,7 +24848,7 @@
       </c>
       <c r="BB189" s="85"/>
     </row>
-    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
         <v>668</v>
       </c>
@@ -24960,7 +24961,7 @@
       </c>
       <c r="BB190" s="85"/>
     </row>
-    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
         <v>669</v>
       </c>
@@ -25073,7 +25074,7 @@
       </c>
       <c r="BB191" s="85"/>
     </row>
-    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="s">
         <v>672</v>
       </c>
@@ -25186,7 +25187,7 @@
       </c>
       <c r="BB192" s="85"/>
     </row>
-    <row r="193" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
         <v>675</v>
       </c>
@@ -25299,7 +25300,7 @@
       </c>
       <c r="BB193" s="85"/>
     </row>
-    <row r="194" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
         <v>677</v>
       </c>
@@ -25412,7 +25413,7 @@
       </c>
       <c r="BB194" s="85"/>
     </row>
-    <row r="195" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
         <v>680</v>
       </c>
@@ -25525,7 +25526,7 @@
       </c>
       <c r="BB195" s="85"/>
     </row>
-    <row r="196" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
         <v>683</v>
       </c>
@@ -25638,7 +25639,7 @@
       </c>
       <c r="BB196" s="85"/>
     </row>
-    <row r="197" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
         <v>686</v>
       </c>
@@ -25751,7 +25752,7 @@
       </c>
       <c r="BB197" s="85"/>
     </row>
-    <row r="198" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="s">
         <v>689</v>
       </c>
@@ -25864,7 +25865,7 @@
       </c>
       <c r="BB198" s="85"/>
     </row>
-    <row r="199" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
         <v>691</v>
       </c>
@@ -25977,7 +25978,7 @@
       </c>
       <c r="BB199" s="85"/>
     </row>
-    <row r="200" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
         <v>693</v>
       </c>
@@ -26090,7 +26091,7 @@
       </c>
       <c r="BB200" s="85"/>
     </row>
-    <row r="201" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
         <v>696</v>
       </c>
@@ -26203,7 +26204,7 @@
       </c>
       <c r="BB201" s="85"/>
     </row>
-    <row r="202" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
         <v>698</v>
       </c>
@@ -26316,7 +26317,7 @@
       </c>
       <c r="BB202" s="85"/>
     </row>
-    <row r="203" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
         <v>700</v>
       </c>
@@ -26429,7 +26430,7 @@
       </c>
       <c r="BB203" s="85"/>
     </row>
-    <row r="204" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="s">
         <v>702</v>
       </c>
@@ -26543,7 +26544,7 @@
       </c>
       <c r="BB204" s="85"/>
     </row>
-    <row r="205" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
         <v>704</v>
       </c>
@@ -26656,7 +26657,7 @@
       </c>
       <c r="BB205" s="85"/>
     </row>
-    <row r="206" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
         <v>706</v>
       </c>
@@ -26769,7 +26770,7 @@
       </c>
       <c r="BB206" s="85"/>
     </row>
-    <row r="207" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="25" t="s">
         <v>707</v>
       </c>
@@ -26882,7 +26883,7 @@
       </c>
       <c r="BB207" s="85"/>
     </row>
-    <row r="208" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="25" t="s">
         <v>710</v>
       </c>
@@ -26995,7 +26996,7 @@
       </c>
       <c r="BB208" s="85"/>
     </row>
-    <row r="209" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="25" t="s">
         <v>713</v>
       </c>
@@ -27108,7 +27109,7 @@
       </c>
       <c r="BB209" s="85"/>
     </row>
-    <row r="210" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="25" t="s">
         <v>716</v>
       </c>
@@ -27221,7 +27222,7 @@
       </c>
       <c r="BB210" s="85"/>
     </row>
-    <row r="211" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="s">
         <v>718</v>
       </c>
@@ -27334,7 +27335,7 @@
       </c>
       <c r="BB211" s="85"/>
     </row>
-    <row r="212" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="25" t="s">
         <v>721</v>
       </c>
@@ -27447,7 +27448,7 @@
       </c>
       <c r="BB212" s="85"/>
     </row>
-    <row r="213" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="25" t="s">
         <v>724</v>
       </c>
@@ -27675,7 +27676,7 @@
       </c>
       <c r="BB214" s="85"/>
     </row>
-    <row r="215" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="s">
         <v>729</v>
       </c>
@@ -27788,7 +27789,7 @@
       </c>
       <c r="BB215" s="85"/>
     </row>
-    <row r="216" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="25" t="s">
         <v>732</v>
       </c>
@@ -27901,7 +27902,7 @@
       </c>
       <c r="BB216" s="85"/>
     </row>
-    <row r="217" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="25" t="s">
         <v>734</v>
       </c>
@@ -28014,7 +28015,7 @@
       </c>
       <c r="BB217" s="85"/>
     </row>
-    <row r="218" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="25" t="s">
         <v>736</v>
       </c>
@@ -28127,7 +28128,7 @@
       </c>
       <c r="BB218" s="85"/>
     </row>
-    <row r="219" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="25" t="s">
         <v>739</v>
       </c>
@@ -28240,7 +28241,7 @@
       </c>
       <c r="BB219" s="85"/>
     </row>
-    <row r="220" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="25" t="s">
         <v>740</v>
       </c>
@@ -28353,7 +28354,7 @@
       </c>
       <c r="BB220" s="85"/>
     </row>
-    <row r="221" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="25" t="s">
         <v>742</v>
       </c>
@@ -28466,7 +28467,7 @@
       </c>
       <c r="BB221" s="85"/>
     </row>
-    <row r="222" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
         <v>743</v>
       </c>
@@ -28579,7 +28580,7 @@
       </c>
       <c r="BB222" s="85"/>
     </row>
-    <row r="223" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
         <v>361</v>
       </c>
@@ -28692,7 +28693,7 @@
       </c>
       <c r="BB223" s="85"/>
     </row>
-    <row r="224" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="25" t="s">
         <v>361</v>
       </c>
@@ -28805,7 +28806,7 @@
       </c>
       <c r="BB224" s="85"/>
     </row>
-    <row r="225" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="25" t="s">
         <v>749</v>
       </c>
@@ -28918,7 +28919,7 @@
       </c>
       <c r="BB225" s="85"/>
     </row>
-    <row r="226" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="25" t="s">
         <v>750</v>
       </c>
@@ -29031,7 +29032,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A12:AG226"/>
+  <autoFilter ref="A12:AG226">
+    <filterColumn colId="17">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A13:AC160">
     <sortCondition ref="A13:A160"/>
     <sortCondition ref="F13:F160"/>
